--- a/doc/slow_func.xlsx
+++ b/doc/slow_func.xlsx
@@ -444,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -464,7 +464,7 @@
       </c>
       <c r="B5">
         <f>B3*B2</f>
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -504,7 +504,7 @@
       </c>
       <c r="D8">
         <f>TRUNC($B$5/C8,0)</f>
-        <v>40000</v>
+        <v>400000</v>
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E71" si="0">TRUNC(D8*(B8*1000/($B$1*$B$5)),0)</f>
@@ -533,7 +533,7 @@
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D72" si="3">TRUNC($B$5/C9,0)</f>
-        <v>33333</v>
+        <v>333333</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>28571</v>
+        <v>285714</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
@@ -591,7 +591,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>250000</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>22222</v>
+        <v>222222</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
@@ -649,7 +649,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
@@ -678,7 +678,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>18181</v>
+        <v>181818</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -707,7 +707,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>16666</v>
+        <v>166666</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -736,7 +736,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
-        <v>15384</v>
+        <v>153846</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -765,7 +765,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>14285</v>
+        <v>142857</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -794,7 +794,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>13333</v>
+        <v>133333</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>12500</v>
+        <v>125000</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -852,7 +852,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>11764</v>
+        <v>117647</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
@@ -881,7 +881,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>11111</v>
+        <v>111111</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
@@ -910,7 +910,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>10526</v>
+        <v>105263</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
@@ -939,7 +939,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
@@ -968,7 +968,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>9523</v>
+        <v>95238</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -997,7 +997,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>9090</v>
+        <v>90909</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>8695</v>
+        <v>86956</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>8333</v>
+        <v>83333</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>8000</v>
+        <v>80000</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>7692</v>
+        <v>76923</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>7407</v>
+        <v>74074</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>7142</v>
+        <v>71428</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>6896</v>
+        <v>68965</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>6666</v>
+        <v>66666</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>6451</v>
+        <v>64516</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>6250</v>
+        <v>62500</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
-        <v>6060</v>
+        <v>60606</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
-        <v>5882</v>
+        <v>58823</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
-        <v>5714</v>
+        <v>57142</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="3"/>
-        <v>5555</v>
+        <v>55555</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="3"/>
-        <v>5405</v>
+        <v>54054</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="3"/>
-        <v>5263</v>
+        <v>52631</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="3"/>
-        <v>5128</v>
+        <v>51282</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="3"/>
-        <v>4878</v>
+        <v>48780</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="3"/>
-        <v>4761</v>
+        <v>47619</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="3"/>
-        <v>4651</v>
+        <v>46511</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="3"/>
-        <v>4545</v>
+        <v>45454</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="3"/>
-        <v>4444</v>
+        <v>44444</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="3"/>
-        <v>4347</v>
+        <v>43478</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="3"/>
-        <v>4255</v>
+        <v>42553</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="3"/>
-        <v>4166</v>
+        <v>41666</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="3"/>
-        <v>4081</v>
+        <v>40816</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="3"/>
-        <v>3921</v>
+        <v>39215</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="3"/>
-        <v>3846</v>
+        <v>38461</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="3"/>
-        <v>3773</v>
+        <v>37735</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="3"/>
-        <v>3703</v>
+        <v>37037</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="3"/>
-        <v>3636</v>
+        <v>36363</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="3"/>
-        <v>3571</v>
+        <v>35714</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="3"/>
-        <v>3508</v>
+        <v>35087</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="3"/>
-        <v>3448</v>
+        <v>34482</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="3"/>
-        <v>3389</v>
+        <v>33898</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="3"/>
-        <v>3333</v>
+        <v>33333</v>
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="3"/>
-        <v>3278</v>
+        <v>32786</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="3"/>
-        <v>3225</v>
+        <v>32258</v>
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="3"/>
-        <v>3174</v>
+        <v>31746</v>
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="D67">
         <f t="shared" si="3"/>
-        <v>3125</v>
+        <v>31250</v>
       </c>
       <c r="E67">
         <f t="shared" si="0"/>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="3"/>
-        <v>3076</v>
+        <v>30769</v>
       </c>
       <c r="E68">
         <f t="shared" si="0"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="3"/>
-        <v>3030</v>
+        <v>30303</v>
       </c>
       <c r="E69">
         <f t="shared" si="0"/>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="3"/>
-        <v>2985</v>
+        <v>29850</v>
       </c>
       <c r="E70">
         <f t="shared" si="0"/>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="3"/>
-        <v>2941</v>
+        <v>29411</v>
       </c>
       <c r="E71">
         <f t="shared" si="0"/>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="3"/>
-        <v>2898</v>
+        <v>28985</v>
       </c>
       <c r="E72">
         <f t="shared" ref="E72:E135" si="6">TRUNC(D72*(B72*1000/($B$1*$B$5)),0)</f>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="D73">
         <f t="shared" ref="D73:D136" si="9">TRUNC($B$5/C73,0)</f>
-        <v>2857</v>
+        <v>28571</v>
       </c>
       <c r="E73">
         <f t="shared" si="6"/>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="9"/>
-        <v>2816</v>
+        <v>28169</v>
       </c>
       <c r="E74">
         <f t="shared" si="6"/>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="9"/>
-        <v>2777</v>
+        <v>27777</v>
       </c>
       <c r="E75">
         <f t="shared" si="6"/>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="D76">
         <f t="shared" si="9"/>
-        <v>2739</v>
+        <v>27397</v>
       </c>
       <c r="E76">
         <f t="shared" si="6"/>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="9"/>
-        <v>2702</v>
+        <v>27027</v>
       </c>
       <c r="E77">
         <f t="shared" si="6"/>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="D78">
         <f t="shared" si="9"/>
-        <v>2666</v>
+        <v>26666</v>
       </c>
       <c r="E78">
         <f t="shared" si="6"/>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="9"/>
-        <v>2631</v>
+        <v>26315</v>
       </c>
       <c r="E79">
         <f t="shared" si="6"/>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="D80">
         <f t="shared" si="9"/>
-        <v>2597</v>
+        <v>25974</v>
       </c>
       <c r="E80">
         <f t="shared" si="6"/>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="9"/>
-        <v>2564</v>
+        <v>25641</v>
       </c>
       <c r="E81">
         <f t="shared" si="6"/>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="9"/>
-        <v>2531</v>
+        <v>25316</v>
       </c>
       <c r="E82">
         <f t="shared" si="6"/>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="D83">
         <f t="shared" si="9"/>
-        <v>2500</v>
+        <v>25000</v>
       </c>
       <c r="E83">
         <f t="shared" si="6"/>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="D84">
         <f t="shared" si="9"/>
-        <v>2469</v>
+        <v>24691</v>
       </c>
       <c r="E84">
         <f t="shared" si="6"/>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D85">
         <f t="shared" si="9"/>
-        <v>2439</v>
+        <v>24390</v>
       </c>
       <c r="E85">
         <f t="shared" si="6"/>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="D86">
         <f t="shared" si="9"/>
-        <v>2409</v>
+        <v>24096</v>
       </c>
       <c r="E86">
         <f t="shared" si="6"/>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="9"/>
-        <v>2380</v>
+        <v>23809</v>
       </c>
       <c r="E87">
         <f t="shared" si="6"/>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="D88">
         <f t="shared" si="9"/>
-        <v>2352</v>
+        <v>23529</v>
       </c>
       <c r="E88">
         <f t="shared" si="6"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="D89">
         <f t="shared" si="9"/>
-        <v>2325</v>
+        <v>23255</v>
       </c>
       <c r="E89">
         <f t="shared" si="6"/>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="D90">
         <f t="shared" si="9"/>
-        <v>2298</v>
+        <v>22988</v>
       </c>
       <c r="E90">
         <f t="shared" si="6"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D91">
         <f t="shared" si="9"/>
-        <v>2272</v>
+        <v>22727</v>
       </c>
       <c r="E91">
         <f t="shared" si="6"/>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="D92">
         <f t="shared" si="9"/>
-        <v>2247</v>
+        <v>22471</v>
       </c>
       <c r="E92">
         <f t="shared" si="6"/>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="D93">
         <f t="shared" si="9"/>
-        <v>2222</v>
+        <v>22222</v>
       </c>
       <c r="E93">
         <f t="shared" si="6"/>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="D94">
         <f t="shared" si="9"/>
-        <v>2197</v>
+        <v>21978</v>
       </c>
       <c r="E94">
         <f t="shared" si="6"/>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="D95">
         <f t="shared" si="9"/>
-        <v>2173</v>
+        <v>21739</v>
       </c>
       <c r="E95">
         <f t="shared" si="6"/>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D96">
         <f t="shared" si="9"/>
-        <v>2150</v>
+        <v>21505</v>
       </c>
       <c r="E96">
         <f t="shared" si="6"/>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D97">
         <f t="shared" si="9"/>
-        <v>2127</v>
+        <v>21276</v>
       </c>
       <c r="E97">
         <f t="shared" si="6"/>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="D98">
         <f t="shared" si="9"/>
-        <v>2105</v>
+        <v>21052</v>
       </c>
       <c r="E98">
         <f t="shared" si="6"/>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="D99">
         <f t="shared" si="9"/>
-        <v>2083</v>
+        <v>20833</v>
       </c>
       <c r="E99">
         <f t="shared" si="6"/>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="D100">
         <f t="shared" si="9"/>
-        <v>2061</v>
+        <v>20618</v>
       </c>
       <c r="E100">
         <f t="shared" si="6"/>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="D101">
         <f t="shared" si="9"/>
-        <v>2040</v>
+        <v>20408</v>
       </c>
       <c r="E101">
         <f t="shared" si="6"/>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="D102">
         <f t="shared" si="9"/>
-        <v>2020</v>
+        <v>20202</v>
       </c>
       <c r="E102">
         <f t="shared" si="6"/>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D103">
         <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="E103">
         <f t="shared" si="6"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="D104">
         <f t="shared" si="9"/>
-        <v>1980</v>
+        <v>19801</v>
       </c>
       <c r="E104">
         <f t="shared" si="6"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="D105">
         <f t="shared" si="9"/>
-        <v>1960</v>
+        <v>19607</v>
       </c>
       <c r="E105">
         <f t="shared" si="6"/>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="D106">
         <f t="shared" si="9"/>
-        <v>1941</v>
+        <v>19417</v>
       </c>
       <c r="E106">
         <f t="shared" si="6"/>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="D107">
         <f t="shared" si="9"/>
-        <v>1923</v>
+        <v>19230</v>
       </c>
       <c r="E107">
         <f t="shared" si="6"/>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="D108">
         <f t="shared" si="9"/>
-        <v>1904</v>
+        <v>19047</v>
       </c>
       <c r="E108">
         <f t="shared" si="6"/>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="D109">
         <f t="shared" si="9"/>
-        <v>1886</v>
+        <v>18867</v>
       </c>
       <c r="E109">
         <f t="shared" si="6"/>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="D110">
         <f t="shared" si="9"/>
-        <v>1869</v>
+        <v>18691</v>
       </c>
       <c r="E110">
         <f t="shared" si="6"/>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="D111">
         <f t="shared" si="9"/>
-        <v>1851</v>
+        <v>18518</v>
       </c>
       <c r="E111">
         <f t="shared" si="6"/>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="D112">
         <f t="shared" si="9"/>
-        <v>1834</v>
+        <v>18348</v>
       </c>
       <c r="E112">
         <f t="shared" si="6"/>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="D113">
         <f t="shared" si="9"/>
-        <v>1818</v>
+        <v>18181</v>
       </c>
       <c r="E113">
         <f t="shared" si="6"/>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="D114">
         <f t="shared" si="9"/>
-        <v>1801</v>
+        <v>18018</v>
       </c>
       <c r="E114">
         <f t="shared" si="6"/>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D115">
         <f t="shared" si="9"/>
-        <v>1785</v>
+        <v>17857</v>
       </c>
       <c r="E115">
         <f t="shared" si="6"/>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="D116">
         <f t="shared" si="9"/>
-        <v>1769</v>
+        <v>17699</v>
       </c>
       <c r="E116">
         <f t="shared" si="6"/>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="D117">
         <f t="shared" si="9"/>
-        <v>1754</v>
+        <v>17543</v>
       </c>
       <c r="E117">
         <f t="shared" si="6"/>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="D118">
         <f t="shared" si="9"/>
-        <v>1739</v>
+        <v>17391</v>
       </c>
       <c r="E118">
         <f t="shared" si="6"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="D119">
         <f t="shared" si="9"/>
-        <v>1724</v>
+        <v>17241</v>
       </c>
       <c r="E119">
         <f t="shared" si="6"/>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="D120">
         <f t="shared" si="9"/>
-        <v>1709</v>
+        <v>17094</v>
       </c>
       <c r="E120">
         <f t="shared" si="6"/>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="D121">
         <f t="shared" si="9"/>
-        <v>1694</v>
+        <v>16949</v>
       </c>
       <c r="E121">
         <f t="shared" si="6"/>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="D122">
         <f t="shared" si="9"/>
-        <v>1680</v>
+        <v>16806</v>
       </c>
       <c r="E122">
         <f t="shared" si="6"/>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="D123">
         <f t="shared" si="9"/>
-        <v>1666</v>
+        <v>16666</v>
       </c>
       <c r="E123">
         <f t="shared" si="6"/>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="D124">
         <f t="shared" si="9"/>
-        <v>1652</v>
+        <v>16528</v>
       </c>
       <c r="E124">
         <f t="shared" si="6"/>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="D125">
         <f t="shared" si="9"/>
-        <v>1639</v>
+        <v>16393</v>
       </c>
       <c r="E125">
         <f t="shared" si="6"/>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="D126">
         <f t="shared" si="9"/>
-        <v>1626</v>
+        <v>16260</v>
       </c>
       <c r="E126">
         <f t="shared" si="6"/>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="D127">
         <f t="shared" si="9"/>
-        <v>1612</v>
+        <v>16129</v>
       </c>
       <c r="E127">
         <f t="shared" si="6"/>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="D128">
         <f t="shared" si="9"/>
-        <v>1600</v>
+        <v>16000</v>
       </c>
       <c r="E128">
         <f t="shared" si="6"/>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="D129">
         <f t="shared" si="9"/>
-        <v>1587</v>
+        <v>15873</v>
       </c>
       <c r="E129">
         <f t="shared" si="6"/>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="D130">
         <f t="shared" si="9"/>
-        <v>1574</v>
+        <v>15748</v>
       </c>
       <c r="E130">
         <f t="shared" si="6"/>
@@ -4071,19 +4071,19 @@
       </c>
       <c r="D131">
         <f t="shared" si="9"/>
-        <v>1562</v>
+        <v>15625</v>
       </c>
       <c r="E131">
         <f t="shared" si="6"/>
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F131">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" si="11"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="D132">
         <f t="shared" si="9"/>
-        <v>1550</v>
+        <v>15503</v>
       </c>
       <c r="E132">
         <f t="shared" si="6"/>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="D133">
         <f t="shared" si="9"/>
-        <v>1538</v>
+        <v>15384</v>
       </c>
       <c r="E133">
         <f t="shared" si="6"/>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="D134">
         <f t="shared" si="9"/>
-        <v>1526</v>
+        <v>15267</v>
       </c>
       <c r="E134">
         <f t="shared" si="6"/>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="D135">
         <f t="shared" si="9"/>
-        <v>1515</v>
+        <v>15151</v>
       </c>
       <c r="E135">
         <f t="shared" si="6"/>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="D136">
         <f t="shared" si="9"/>
-        <v>1503</v>
+        <v>15037</v>
       </c>
       <c r="E136">
         <f t="shared" ref="E136:E199" si="12">TRUNC(D136*(B136*1000/($B$1*$B$5)),0)</f>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="D137">
         <f t="shared" ref="D137:D200" si="15">TRUNC($B$5/C137,0)</f>
-        <v>1492</v>
+        <v>14925</v>
       </c>
       <c r="E137">
         <f t="shared" si="12"/>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="D138">
         <f t="shared" si="15"/>
-        <v>1481</v>
+        <v>14814</v>
       </c>
       <c r="E138">
         <f t="shared" si="12"/>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D139">
         <f t="shared" si="15"/>
-        <v>1470</v>
+        <v>14705</v>
       </c>
       <c r="E139">
         <f t="shared" si="12"/>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="D140">
         <f t="shared" si="15"/>
-        <v>1459</v>
+        <v>14598</v>
       </c>
       <c r="E140">
         <f t="shared" si="12"/>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="D141">
         <f t="shared" si="15"/>
-        <v>1449</v>
+        <v>14492</v>
       </c>
       <c r="E141">
         <f t="shared" si="12"/>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="D142">
         <f t="shared" si="15"/>
-        <v>1438</v>
+        <v>14388</v>
       </c>
       <c r="E142">
         <f t="shared" si="12"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="D143">
         <f t="shared" si="15"/>
-        <v>1428</v>
+        <v>14285</v>
       </c>
       <c r="E143">
         <f t="shared" si="12"/>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="D144">
         <f t="shared" si="15"/>
-        <v>1418</v>
+        <v>14184</v>
       </c>
       <c r="E144">
         <f t="shared" si="12"/>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="D145">
         <f t="shared" si="15"/>
-        <v>1408</v>
+        <v>14084</v>
       </c>
       <c r="E145">
         <f t="shared" si="12"/>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="D146">
         <f t="shared" si="15"/>
-        <v>1398</v>
+        <v>13986</v>
       </c>
       <c r="E146">
         <f t="shared" si="12"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="D147">
         <f t="shared" si="15"/>
-        <v>1388</v>
+        <v>13888</v>
       </c>
       <c r="E147">
         <f t="shared" si="12"/>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="D148">
         <f t="shared" si="15"/>
-        <v>1379</v>
+        <v>13793</v>
       </c>
       <c r="E148">
         <f t="shared" si="12"/>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="D149">
         <f t="shared" si="15"/>
-        <v>1369</v>
+        <v>13698</v>
       </c>
       <c r="E149">
         <f t="shared" si="12"/>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="D150">
         <f t="shared" si="15"/>
-        <v>1360</v>
+        <v>13605</v>
       </c>
       <c r="E150">
         <f t="shared" si="12"/>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D151">
         <f t="shared" si="15"/>
-        <v>1351</v>
+        <v>13513</v>
       </c>
       <c r="E151">
         <f t="shared" si="12"/>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="D152">
         <f t="shared" si="15"/>
-        <v>1342</v>
+        <v>13422</v>
       </c>
       <c r="E152">
         <f t="shared" si="12"/>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="D153">
         <f t="shared" si="15"/>
-        <v>1333</v>
+        <v>13333</v>
       </c>
       <c r="E153">
         <f t="shared" si="12"/>
@@ -4738,7 +4738,7 @@
       </c>
       <c r="D154">
         <f t="shared" si="15"/>
-        <v>1324</v>
+        <v>13245</v>
       </c>
       <c r="E154">
         <f t="shared" si="12"/>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="D155">
         <f t="shared" si="15"/>
-        <v>1315</v>
+        <v>13157</v>
       </c>
       <c r="E155">
         <f t="shared" si="12"/>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="D156">
         <f t="shared" si="15"/>
-        <v>1307</v>
+        <v>13071</v>
       </c>
       <c r="E156">
         <f t="shared" si="12"/>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="D157">
         <f t="shared" si="15"/>
-        <v>1298</v>
+        <v>12987</v>
       </c>
       <c r="E157">
         <f t="shared" si="12"/>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="D158">
         <f t="shared" si="15"/>
-        <v>1290</v>
+        <v>12903</v>
       </c>
       <c r="E158">
         <f t="shared" si="12"/>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="D159">
         <f t="shared" si="15"/>
-        <v>1282</v>
+        <v>12820</v>
       </c>
       <c r="E159">
         <f t="shared" si="12"/>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="D160">
         <f t="shared" si="15"/>
-        <v>1273</v>
+        <v>12738</v>
       </c>
       <c r="E160">
         <f t="shared" si="12"/>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="D161">
         <f t="shared" si="15"/>
-        <v>1265</v>
+        <v>12658</v>
       </c>
       <c r="E161">
         <f t="shared" si="12"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="D162">
         <f t="shared" si="15"/>
-        <v>1257</v>
+        <v>12578</v>
       </c>
       <c r="E162">
         <f t="shared" si="12"/>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="D163">
         <f t="shared" si="15"/>
-        <v>1250</v>
+        <v>12500</v>
       </c>
       <c r="E163">
         <f t="shared" si="12"/>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="D164">
         <f t="shared" si="15"/>
-        <v>1242</v>
+        <v>12422</v>
       </c>
       <c r="E164">
         <f t="shared" si="12"/>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="D165">
         <f t="shared" si="15"/>
-        <v>1234</v>
+        <v>12345</v>
       </c>
       <c r="E165">
         <f t="shared" si="12"/>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="D166">
         <f t="shared" si="15"/>
-        <v>1226</v>
+        <v>12269</v>
       </c>
       <c r="E166">
         <f t="shared" si="12"/>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="D167">
         <f t="shared" si="15"/>
-        <v>1219</v>
+        <v>12195</v>
       </c>
       <c r="E167">
         <f t="shared" si="12"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="D168">
         <f t="shared" si="15"/>
-        <v>1212</v>
+        <v>12121</v>
       </c>
       <c r="E168">
         <f t="shared" si="12"/>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="D169">
         <f t="shared" si="15"/>
-        <v>1204</v>
+        <v>12048</v>
       </c>
       <c r="E169">
         <f t="shared" si="12"/>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="D170">
         <f t="shared" si="15"/>
-        <v>1197</v>
+        <v>11976</v>
       </c>
       <c r="E170">
         <f t="shared" si="12"/>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="D171">
         <f t="shared" si="15"/>
-        <v>1190</v>
+        <v>11904</v>
       </c>
       <c r="E171">
         <f t="shared" si="12"/>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="D172">
         <f t="shared" si="15"/>
-        <v>1183</v>
+        <v>11834</v>
       </c>
       <c r="E172">
         <f t="shared" si="12"/>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="D173">
         <f t="shared" si="15"/>
-        <v>1176</v>
+        <v>11764</v>
       </c>
       <c r="E173">
         <f t="shared" si="12"/>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="D174">
         <f t="shared" si="15"/>
-        <v>1169</v>
+        <v>11695</v>
       </c>
       <c r="E174">
         <f t="shared" si="12"/>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="D175">
         <f t="shared" si="15"/>
-        <v>1162</v>
+        <v>11627</v>
       </c>
       <c r="E175">
         <f t="shared" si="12"/>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="D176">
         <f t="shared" si="15"/>
-        <v>1156</v>
+        <v>11560</v>
       </c>
       <c r="E176">
         <f t="shared" si="12"/>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="D177">
         <f t="shared" si="15"/>
-        <v>1149</v>
+        <v>11494</v>
       </c>
       <c r="E177">
         <f t="shared" si="12"/>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="D178">
         <f t="shared" si="15"/>
-        <v>1142</v>
+        <v>11428</v>
       </c>
       <c r="E178">
         <f t="shared" si="12"/>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="D179">
         <f t="shared" si="15"/>
-        <v>1136</v>
+        <v>11363</v>
       </c>
       <c r="E179">
         <f t="shared" si="12"/>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="D180">
         <f t="shared" si="15"/>
-        <v>1129</v>
+        <v>11299</v>
       </c>
       <c r="E180">
         <f t="shared" si="12"/>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="D181">
         <f t="shared" si="15"/>
-        <v>1123</v>
+        <v>11235</v>
       </c>
       <c r="E181">
         <f t="shared" si="12"/>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="D182">
         <f t="shared" si="15"/>
-        <v>1117</v>
+        <v>11173</v>
       </c>
       <c r="E182">
         <f t="shared" si="12"/>
@@ -5579,7 +5579,7 @@
       </c>
       <c r="D183">
         <f t="shared" si="15"/>
-        <v>1111</v>
+        <v>11111</v>
       </c>
       <c r="E183">
         <f t="shared" si="12"/>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="D184">
         <f t="shared" si="15"/>
-        <v>1104</v>
+        <v>11049</v>
       </c>
       <c r="E184">
         <f t="shared" si="12"/>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="D185">
         <f t="shared" si="15"/>
-        <v>1098</v>
+        <v>10989</v>
       </c>
       <c r="E185">
         <f t="shared" si="12"/>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="D186">
         <f t="shared" si="15"/>
-        <v>1092</v>
+        <v>10928</v>
       </c>
       <c r="E186">
         <f t="shared" si="12"/>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="D187">
         <f t="shared" si="15"/>
-        <v>1086</v>
+        <v>10869</v>
       </c>
       <c r="E187">
         <f t="shared" si="12"/>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="D188">
         <f t="shared" si="15"/>
-        <v>1081</v>
+        <v>10810</v>
       </c>
       <c r="E188">
         <f t="shared" si="12"/>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D189">
         <f t="shared" si="15"/>
-        <v>1075</v>
+        <v>10752</v>
       </c>
       <c r="E189">
         <f t="shared" si="12"/>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="D190">
         <f t="shared" si="15"/>
-        <v>1069</v>
+        <v>10695</v>
       </c>
       <c r="E190">
         <f t="shared" si="12"/>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="D191">
         <f t="shared" si="15"/>
-        <v>1063</v>
+        <v>10638</v>
       </c>
       <c r="E191">
         <f t="shared" si="12"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="D192">
         <f t="shared" si="15"/>
-        <v>1058</v>
+        <v>10582</v>
       </c>
       <c r="E192">
         <f t="shared" si="12"/>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D193">
         <f t="shared" si="15"/>
-        <v>1052</v>
+        <v>10526</v>
       </c>
       <c r="E193">
         <f t="shared" si="12"/>
@@ -5898,7 +5898,7 @@
       </c>
       <c r="D194">
         <f t="shared" si="15"/>
-        <v>1047</v>
+        <v>10471</v>
       </c>
       <c r="E194">
         <f t="shared" si="12"/>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="D195">
         <f t="shared" si="15"/>
-        <v>1041</v>
+        <v>10416</v>
       </c>
       <c r="E195">
         <f t="shared" si="12"/>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="D196">
         <f t="shared" si="15"/>
-        <v>1036</v>
+        <v>10362</v>
       </c>
       <c r="E196">
         <f t="shared" si="12"/>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="D197">
         <f t="shared" si="15"/>
-        <v>1030</v>
+        <v>10309</v>
       </c>
       <c r="E197">
         <f t="shared" si="12"/>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="D198">
         <f t="shared" si="15"/>
-        <v>1025</v>
+        <v>10256</v>
       </c>
       <c r="E198">
         <f t="shared" si="12"/>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="D199">
         <f t="shared" si="15"/>
-        <v>1020</v>
+        <v>10204</v>
       </c>
       <c r="E199">
         <f t="shared" si="12"/>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="D200">
         <f t="shared" si="15"/>
-        <v>1015</v>
+        <v>10152</v>
       </c>
       <c r="E200">
         <f t="shared" ref="E200:E263" si="18">TRUNC(D200*(B200*1000/($B$1*$B$5)),0)</f>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="D201">
         <f t="shared" ref="D201:D264" si="21">TRUNC($B$5/C201,0)</f>
-        <v>1010</v>
+        <v>10101</v>
       </c>
       <c r="E201">
         <f t="shared" si="18"/>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="D202">
         <f t="shared" si="21"/>
-        <v>1005</v>
+        <v>10050</v>
       </c>
       <c r="E202">
         <f t="shared" si="18"/>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="D203">
         <f t="shared" si="21"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="E203">
         <f t="shared" si="18"/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="D204">
         <f t="shared" si="21"/>
-        <v>995</v>
+        <v>9950</v>
       </c>
       <c r="E204">
         <f t="shared" si="18"/>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="D205">
         <f t="shared" si="21"/>
-        <v>990</v>
+        <v>9900</v>
       </c>
       <c r="E205">
         <f t="shared" si="18"/>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="D206">
         <f t="shared" si="21"/>
-        <v>985</v>
+        <v>9852</v>
       </c>
       <c r="E206">
         <f t="shared" si="18"/>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="D207">
         <f t="shared" si="21"/>
-        <v>980</v>
+        <v>9803</v>
       </c>
       <c r="E207">
         <f t="shared" si="18"/>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="D208">
         <f t="shared" si="21"/>
-        <v>975</v>
+        <v>9756</v>
       </c>
       <c r="E208">
         <f t="shared" si="18"/>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="D209">
         <f t="shared" si="21"/>
-        <v>970</v>
+        <v>9708</v>
       </c>
       <c r="E209">
         <f t="shared" si="18"/>
@@ -6362,7 +6362,7 @@
       </c>
       <c r="D210">
         <f t="shared" si="21"/>
-        <v>966</v>
+        <v>9661</v>
       </c>
       <c r="E210">
         <f t="shared" si="18"/>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="D211">
         <f t="shared" si="21"/>
-        <v>961</v>
+        <v>9615</v>
       </c>
       <c r="E211">
         <f t="shared" si="18"/>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="D212">
         <f t="shared" si="21"/>
-        <v>956</v>
+        <v>9569</v>
       </c>
       <c r="E212">
         <f t="shared" si="18"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="D213">
         <f t="shared" si="21"/>
-        <v>952</v>
+        <v>9523</v>
       </c>
       <c r="E213">
         <f t="shared" si="18"/>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="D214">
         <f t="shared" si="21"/>
-        <v>947</v>
+        <v>9478</v>
       </c>
       <c r="E214">
         <f t="shared" si="18"/>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="D215">
         <f t="shared" si="21"/>
-        <v>943</v>
+        <v>9433</v>
       </c>
       <c r="E215">
         <f t="shared" si="18"/>
@@ -6536,19 +6536,19 @@
       </c>
       <c r="D216">
         <f t="shared" si="21"/>
-        <v>938</v>
+        <v>9389</v>
       </c>
       <c r="E216">
         <f t="shared" si="18"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F216">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G216" s="2">
         <f t="shared" si="23"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="D217">
         <f t="shared" si="21"/>
-        <v>934</v>
+        <v>9345</v>
       </c>
       <c r="E217">
         <f t="shared" si="18"/>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="D218">
         <f t="shared" si="21"/>
-        <v>930</v>
+        <v>9302</v>
       </c>
       <c r="E218">
         <f t="shared" si="18"/>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="D219">
         <f t="shared" si="21"/>
-        <v>925</v>
+        <v>9259</v>
       </c>
       <c r="E219">
         <f t="shared" si="18"/>
@@ -6652,7 +6652,7 @@
       </c>
       <c r="D220">
         <f t="shared" si="21"/>
-        <v>921</v>
+        <v>9216</v>
       </c>
       <c r="E220">
         <f t="shared" si="18"/>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="D221">
         <f t="shared" si="21"/>
-        <v>917</v>
+        <v>9174</v>
       </c>
       <c r="E221">
         <f t="shared" si="18"/>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="D222">
         <f t="shared" si="21"/>
-        <v>913</v>
+        <v>9132</v>
       </c>
       <c r="E222">
         <f t="shared" si="18"/>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="D223">
         <f t="shared" si="21"/>
-        <v>909</v>
+        <v>9090</v>
       </c>
       <c r="E223">
         <f t="shared" si="18"/>
@@ -6768,19 +6768,19 @@
       </c>
       <c r="D224">
         <f t="shared" si="21"/>
-        <v>904</v>
+        <v>9049</v>
       </c>
       <c r="E224">
         <f t="shared" si="18"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F224">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G224" s="2">
         <f t="shared" si="23"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="D225">
         <f t="shared" si="21"/>
-        <v>900</v>
+        <v>9009</v>
       </c>
       <c r="E225">
         <f t="shared" si="18"/>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="D226">
         <f t="shared" si="21"/>
-        <v>896</v>
+        <v>8968</v>
       </c>
       <c r="E226">
         <f t="shared" si="18"/>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="D227">
         <f t="shared" si="21"/>
-        <v>892</v>
+        <v>8928</v>
       </c>
       <c r="E227">
         <f t="shared" si="18"/>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="D228">
         <f t="shared" si="21"/>
-        <v>888</v>
+        <v>8888</v>
       </c>
       <c r="E228">
         <f t="shared" si="18"/>
@@ -6913,19 +6913,19 @@
       </c>
       <c r="D229">
         <f t="shared" si="21"/>
-        <v>884</v>
+        <v>8849</v>
       </c>
       <c r="E229">
         <f t="shared" si="18"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F229">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G229" s="2">
         <f t="shared" si="23"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -6942,7 +6942,7 @@
       </c>
       <c r="D230">
         <f t="shared" si="21"/>
-        <v>881</v>
+        <v>8810</v>
       </c>
       <c r="E230">
         <f t="shared" si="18"/>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="D231">
         <f t="shared" si="21"/>
-        <v>877</v>
+        <v>8771</v>
       </c>
       <c r="E231">
         <f t="shared" si="18"/>
@@ -7000,7 +7000,7 @@
       </c>
       <c r="D232">
         <f t="shared" si="21"/>
-        <v>873</v>
+        <v>8733</v>
       </c>
       <c r="E232">
         <f t="shared" si="18"/>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="D233">
         <f t="shared" si="21"/>
-        <v>869</v>
+        <v>8695</v>
       </c>
       <c r="E233">
         <f t="shared" si="18"/>
@@ -7058,7 +7058,7 @@
       </c>
       <c r="D234">
         <f t="shared" si="21"/>
-        <v>865</v>
+        <v>8658</v>
       </c>
       <c r="E234">
         <f t="shared" si="18"/>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="D235">
         <f t="shared" si="21"/>
-        <v>862</v>
+        <v>8620</v>
       </c>
       <c r="E235">
         <f t="shared" si="18"/>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="D236">
         <f t="shared" si="21"/>
-        <v>858</v>
+        <v>8583</v>
       </c>
       <c r="E236">
         <f t="shared" si="18"/>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="D237">
         <f t="shared" si="21"/>
-        <v>854</v>
+        <v>8547</v>
       </c>
       <c r="E237">
         <f t="shared" si="18"/>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="D238">
         <f t="shared" si="21"/>
-        <v>851</v>
+        <v>8510</v>
       </c>
       <c r="E238">
         <f t="shared" si="18"/>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="D239">
         <f t="shared" si="21"/>
-        <v>847</v>
+        <v>8474</v>
       </c>
       <c r="E239">
         <f t="shared" si="18"/>
@@ -7232,19 +7232,19 @@
       </c>
       <c r="D240">
         <f t="shared" si="21"/>
-        <v>843</v>
+        <v>8438</v>
       </c>
       <c r="E240">
         <f t="shared" si="18"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F240">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G240" s="2">
         <f t="shared" si="23"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="D241">
         <f t="shared" si="21"/>
-        <v>840</v>
+        <v>8403</v>
       </c>
       <c r="E241">
         <f t="shared" si="18"/>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="D242">
         <f t="shared" si="21"/>
-        <v>836</v>
+        <v>8368</v>
       </c>
       <c r="E242">
         <f t="shared" si="18"/>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="D243">
         <f t="shared" si="21"/>
-        <v>833</v>
+        <v>8333</v>
       </c>
       <c r="E243">
         <f t="shared" si="18"/>
@@ -7348,19 +7348,19 @@
       </c>
       <c r="D244">
         <f t="shared" si="21"/>
-        <v>829</v>
+        <v>8298</v>
       </c>
       <c r="E244">
         <f t="shared" si="18"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F244">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G244" s="2">
         <f t="shared" si="23"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="D245">
         <f t="shared" si="21"/>
-        <v>826</v>
+        <v>8264</v>
       </c>
       <c r="E245">
         <f t="shared" si="18"/>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="D246">
         <f t="shared" si="21"/>
-        <v>823</v>
+        <v>8230</v>
       </c>
       <c r="E246">
         <f t="shared" si="18"/>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="D247">
         <f t="shared" si="21"/>
-        <v>819</v>
+        <v>8196</v>
       </c>
       <c r="E247">
         <f t="shared" si="18"/>
@@ -7464,7 +7464,7 @@
       </c>
       <c r="D248">
         <f t="shared" si="21"/>
-        <v>816</v>
+        <v>8163</v>
       </c>
       <c r="E248">
         <f t="shared" si="18"/>
@@ -7493,7 +7493,7 @@
       </c>
       <c r="D249">
         <f t="shared" si="21"/>
-        <v>813</v>
+        <v>8130</v>
       </c>
       <c r="E249">
         <f t="shared" si="18"/>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="D250">
         <f t="shared" si="21"/>
-        <v>809</v>
+        <v>8097</v>
       </c>
       <c r="E250">
         <f t="shared" si="18"/>
@@ -7551,7 +7551,7 @@
       </c>
       <c r="D251">
         <f t="shared" si="21"/>
-        <v>806</v>
+        <v>8064</v>
       </c>
       <c r="E251">
         <f t="shared" si="18"/>
@@ -7580,7 +7580,7 @@
       </c>
       <c r="D252">
         <f t="shared" si="21"/>
-        <v>803</v>
+        <v>8032</v>
       </c>
       <c r="E252">
         <f t="shared" si="18"/>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="D253">
         <f t="shared" si="21"/>
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="E253">
         <f t="shared" si="18"/>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="D254">
         <f t="shared" si="21"/>
-        <v>769</v>
+        <v>7692</v>
       </c>
       <c r="E254">
         <f t="shared" si="18"/>
@@ -7667,7 +7667,7 @@
       </c>
       <c r="D255">
         <f t="shared" si="21"/>
-        <v>740</v>
+        <v>7407</v>
       </c>
       <c r="E255">
         <f t="shared" si="18"/>
@@ -7696,7 +7696,7 @@
       </c>
       <c r="D256">
         <f t="shared" si="21"/>
-        <v>714</v>
+        <v>7142</v>
       </c>
       <c r="E256">
         <f t="shared" si="18"/>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="D257">
         <f t="shared" si="21"/>
-        <v>689</v>
+        <v>6896</v>
       </c>
       <c r="E257">
         <f t="shared" si="18"/>
@@ -7754,7 +7754,7 @@
       </c>
       <c r="D258">
         <f t="shared" si="21"/>
-        <v>666</v>
+        <v>6666</v>
       </c>
       <c r="E258">
         <f t="shared" si="18"/>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="D259">
         <f t="shared" si="21"/>
-        <v>645</v>
+        <v>6451</v>
       </c>
       <c r="E259">
         <f t="shared" si="18"/>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="D260">
         <f t="shared" si="21"/>
-        <v>625</v>
+        <v>6250</v>
       </c>
       <c r="E260">
         <f t="shared" si="18"/>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="D261">
         <f t="shared" si="21"/>
-        <v>606</v>
+        <v>6060</v>
       </c>
       <c r="E261">
         <f t="shared" si="18"/>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="D262">
         <f t="shared" si="21"/>
-        <v>588</v>
+        <v>5882</v>
       </c>
       <c r="E262">
         <f t="shared" si="18"/>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="D263">
         <f t="shared" si="21"/>
-        <v>571</v>
+        <v>5714</v>
       </c>
       <c r="E263">
         <f t="shared" si="18"/>
@@ -7928,10 +7928,10 @@
       </c>
       <c r="D264">
         <f t="shared" si="21"/>
-        <v>555</v>
+        <v>5555</v>
       </c>
       <c r="E264">
-        <f t="shared" ref="E264:E327" si="27">TRUNC(D264*(B264*1000/($B$1*$B$5)),0)</f>
+        <f t="shared" ref="E264:E288" si="27">TRUNC(D264*(B264*1000/($B$1*$B$5)),0)</f>
         <v>999</v>
       </c>
       <c r="F264">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="D265">
         <f t="shared" ref="D265:D288" si="29">TRUNC($B$5/C265,0)</f>
-        <v>540</v>
+        <v>5405</v>
       </c>
       <c r="E265">
         <f t="shared" si="27"/>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="D266">
         <f t="shared" si="29"/>
-        <v>526</v>
+        <v>5263</v>
       </c>
       <c r="E266">
         <f t="shared" si="27"/>
@@ -8015,19 +8015,19 @@
       </c>
       <c r="D267">
         <f t="shared" si="29"/>
-        <v>512</v>
+        <v>5128</v>
       </c>
       <c r="E267">
         <f t="shared" si="27"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F267">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G267" s="2">
         <f t="shared" si="26"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="D268">
         <f t="shared" si="29"/>
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="E268">
         <f t="shared" si="27"/>
@@ -8073,19 +8073,19 @@
       </c>
       <c r="D269">
         <f t="shared" si="29"/>
-        <v>487</v>
+        <v>4878</v>
       </c>
       <c r="E269">
         <f t="shared" si="27"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F269">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G269" s="2">
         <f t="shared" si="26"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="D270">
         <f t="shared" si="29"/>
-        <v>476</v>
+        <v>4761</v>
       </c>
       <c r="E270">
         <f t="shared" si="27"/>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="D271">
         <f t="shared" si="29"/>
-        <v>465</v>
+        <v>4651</v>
       </c>
       <c r="E271">
         <f t="shared" si="27"/>
@@ -8160,19 +8160,19 @@
       </c>
       <c r="D272">
         <f t="shared" si="29"/>
-        <v>454</v>
+        <v>4545</v>
       </c>
       <c r="E272">
         <f t="shared" si="27"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F272">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G272" s="2">
         <f t="shared" si="26"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="D273">
         <f t="shared" si="29"/>
-        <v>444</v>
+        <v>4444</v>
       </c>
       <c r="E273">
         <f t="shared" si="27"/>
@@ -8218,19 +8218,19 @@
       </c>
       <c r="D274">
         <f t="shared" si="29"/>
-        <v>434</v>
+        <v>4347</v>
       </c>
       <c r="E274">
         <f t="shared" si="27"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F274">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G274" s="2">
         <f t="shared" si="26"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -8247,19 +8247,19 @@
       </c>
       <c r="D275">
         <f t="shared" si="29"/>
-        <v>425</v>
+        <v>4255</v>
       </c>
       <c r="E275">
         <f t="shared" si="27"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F275">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G275" s="2">
         <f t="shared" si="26"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -8276,19 +8276,19 @@
       </c>
       <c r="D276">
         <f t="shared" si="29"/>
-        <v>416</v>
+        <v>4166</v>
       </c>
       <c r="E276">
         <f t="shared" si="27"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F276">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G276" s="2">
         <f t="shared" si="26"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -8305,7 +8305,7 @@
       </c>
       <c r="D277">
         <f t="shared" si="29"/>
-        <v>408</v>
+        <v>4081</v>
       </c>
       <c r="E277">
         <f t="shared" si="27"/>
@@ -8334,7 +8334,7 @@
       </c>
       <c r="D278">
         <f t="shared" si="29"/>
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E278">
         <f t="shared" si="27"/>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="D279">
         <f t="shared" si="29"/>
-        <v>392</v>
+        <v>3921</v>
       </c>
       <c r="E279">
         <f t="shared" si="27"/>
@@ -8392,19 +8392,19 @@
       </c>
       <c r="D280">
         <f t="shared" si="29"/>
-        <v>384</v>
+        <v>3846</v>
       </c>
       <c r="E280">
         <f t="shared" si="27"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F280">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G280" s="2">
         <f t="shared" si="26"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="D281">
         <f t="shared" si="29"/>
-        <v>377</v>
+        <v>3773</v>
       </c>
       <c r="E281">
         <f t="shared" si="27"/>
@@ -8450,7 +8450,7 @@
       </c>
       <c r="D282">
         <f t="shared" si="29"/>
-        <v>370</v>
+        <v>3703</v>
       </c>
       <c r="E282">
         <f t="shared" si="27"/>
@@ -8479,19 +8479,19 @@
       </c>
       <c r="D283">
         <f t="shared" si="29"/>
-        <v>363</v>
+        <v>3636</v>
       </c>
       <c r="E283">
         <f t="shared" si="27"/>
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F283">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G283" s="2">
         <f t="shared" si="26"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="D284">
         <f t="shared" si="29"/>
-        <v>357</v>
+        <v>3571</v>
       </c>
       <c r="E284">
         <f t="shared" si="27"/>
@@ -8537,19 +8537,19 @@
       </c>
       <c r="D285">
         <f t="shared" si="29"/>
-        <v>350</v>
+        <v>3508</v>
       </c>
       <c r="E285">
         <f t="shared" si="27"/>
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F285">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G285" s="2">
         <f t="shared" si="26"/>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
@@ -8566,19 +8566,19 @@
       </c>
       <c r="D286">
         <f t="shared" si="29"/>
-        <v>344</v>
+        <v>3448</v>
       </c>
       <c r="E286">
         <f t="shared" si="27"/>
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F286">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G286" s="2">
         <f t="shared" si="26"/>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -8595,19 +8595,19 @@
       </c>
       <c r="D287">
         <f t="shared" si="29"/>
-        <v>338</v>
+        <v>3389</v>
       </c>
       <c r="E287">
         <f t="shared" si="27"/>
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F287">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G287" s="2">
         <f t="shared" si="26"/>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="D288">
         <f t="shared" si="29"/>
-        <v>333</v>
+        <v>3333</v>
       </c>
       <c r="E288">
         <f t="shared" si="27"/>
